--- a/biology/Zoologie/Alsophis_antillensis/Alsophis_antillensis.xlsx
+++ b/biology/Zoologie/Alsophis_antillensis/Alsophis_antillensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alsophis antillensis, la Couleuvre de la Guadeloupe  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alsophis antillensis, la Couleuvre de la Guadeloupe  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Guadeloupe[2]. Elle se rencontre sur la Basse-Terre notamment sur la Soufrière, très rarement sur la Grande-Terre et à Marie Galante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Guadeloupe. Elle se rencontre sur la Basse-Terre notamment sur la Soufrière, très rarement sur la Grande-Terre et à Marie Galante.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 90 à 170 cm et pèse environ 5 kg. Elle atteint une longévité de près de 20 ans.
 Cette espèce est gravement menacée d'extinction. Il n'en reste maintenant qu'environ 350 spécimens au monde.
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Alsophis antillensis manselli, Alsophis antillensis sibonius, Alsophis antillensis sanctonum et Alsophis antillensis danforthi ont été élevées au rang d'espèce[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Alsophis antillensis manselli, Alsophis antillensis sibonius, Alsophis antillensis sanctonum et Alsophis antillensis danforthi ont été élevées au rang d'espèce,.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de antill[es] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les Antilles.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Schlegel, 1837 : Essai sur la physionomie des serpens, La Haye, J. Kips, J. HZ. et W. P. van Stockum, vol. 1 (texte intégral) et vol. 2 (texte intégral).</t>
         </is>
